--- a/超市.xlsx
+++ b/超市.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feng Xia\Documents\WeChat Files\zhang1097824119\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feng\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D97A6-AF4C-4E73-920D-AACBCFB8BDDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5946A197-AA40-4623-97DD-05C7DC32F7CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{4A1F3E85-6A88-410B-A455-086BC093ECC4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>湛江市霞山区人民大道21号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,62 @@
   </si>
   <si>
     <t>湛江市赤坎区光辉市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜又多超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省赤坎区南桥路60号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐百汇超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省赤坎区湾北路2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐佳家超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市赤坎区庶文路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省赤坎区体育南路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百宜嘉超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优佳超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省赤坎区文中路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌大昌吴川店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠宜美超市广东省赤坎区源珠路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠宜美超市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082E77B-C7B7-4A60-9764-A553C3447E77}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1034,6 +1090,64 @@
         <v>77</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/超市.xlsx
+++ b/超市.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feng\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\file\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5946A197-AA40-4623-97DD-05C7DC32F7CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C706DD1-BF1E-4BF4-B3F7-A009BCDE19BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{4A1F3E85-6A88-410B-A455-086BC093ECC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5595" xr2:uid="{4A1F3E85-6A88-410B-A455-086BC093ECC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
   <si>
     <t>湛江市霞山区人民大道21号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,35 +108,6 @@
     <t>湛师燕岭超市</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赤坎区寸金路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号岭南师范学院燕岭阁首层</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>13670961715</t>
   </si>
   <si>
@@ -151,9 +117,6 @@
     <t>新汇家超市(百福源店）</t>
   </si>
   <si>
-    <t>雅园旁</t>
-  </si>
-  <si>
     <t>陈燕娜</t>
   </si>
   <si>
@@ -163,9 +126,6 @@
     <t>新汇家超市（潮州塘店）</t>
   </si>
   <si>
-    <t>赤坎潮州塘</t>
-  </si>
-  <si>
     <t>新汇家（东风店）</t>
   </si>
   <si>
@@ -184,12 +144,6 @@
     <t>陈经理</t>
   </si>
   <si>
-    <t>海滨大道204号</t>
-  </si>
-  <si>
-    <t>3187138/3386198</t>
-  </si>
-  <si>
     <t>何秀</t>
   </si>
   <si>
@@ -294,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海景路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>千军万酱超市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万家生鲜超市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨传铭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,27 +312,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>港丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌大昌吴川店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>惠宜美超市广东省赤坎区源珠路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>惠宜美超市</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤园超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市赤坎区学智路2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱福超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市东简客运站100米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘法超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿嘉超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市开发区东镇卫生院对面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱岛超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力发超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市霞山区绿塘北三北路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港丰商场（万和分店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省吴川市海港大道金沙广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌大昌（吴川金沙广场店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省吴川市海港大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江霞山区明润广场华新小区荷花南路东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和喜超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江市霞山区社坛路3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺乐超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江霞山区明润广场华新小区荷花南路北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佰多生活超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江市人民大道中61号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟小青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市赤坎区百园路雅园旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市赤坎潮州塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江市霞山区海滨大道204号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江市霞山区海景路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭店长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家生鲜超市（光辉店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家生鲜超市（明润店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13414982390</t>
+  </si>
+  <si>
+    <t>18875962581</t>
+  </si>
+  <si>
+    <t>15902169132</t>
+  </si>
+  <si>
+    <t>邓清丽</t>
+  </si>
+  <si>
+    <t>王康</t>
+  </si>
+  <si>
+    <t>徐小姐</t>
+  </si>
+  <si>
+    <t>聪哥</t>
+  </si>
+  <si>
+    <t>梁涛</t>
+  </si>
+  <si>
+    <t>13828220163</t>
+  </si>
+  <si>
+    <t>18319094047</t>
+  </si>
+  <si>
+    <t>黄生</t>
+  </si>
+  <si>
+    <t>庞老板</t>
+  </si>
+  <si>
+    <t>谢老板</t>
+  </si>
+  <si>
+    <t>阿芳</t>
+  </si>
+  <si>
+    <t>来姨</t>
+  </si>
+  <si>
+    <t>妙姐</t>
+  </si>
+  <si>
+    <t>余景湛</t>
+  </si>
+  <si>
+    <t>18718805399</t>
+  </si>
+  <si>
+    <t>15913524244</t>
+  </si>
+  <si>
+    <t>13692421132</t>
+  </si>
+  <si>
+    <t>15017367508</t>
+  </si>
+  <si>
+    <t>13046208444</t>
+  </si>
+  <si>
+    <t>15707514184</t>
+  </si>
+  <si>
+    <t>18934025729</t>
+  </si>
+  <si>
+    <t>15900133810</t>
+  </si>
+  <si>
+    <t>杨柳钊</t>
+  </si>
+  <si>
+    <t>阿梅</t>
+  </si>
+  <si>
+    <t>林小弟</t>
+  </si>
+  <si>
+    <t>草娣</t>
+  </si>
+  <si>
+    <t>周经理</t>
+  </si>
+  <si>
+    <t>林经理</t>
+  </si>
+  <si>
+    <t>香姐</t>
+  </si>
+  <si>
+    <t>黄老板</t>
+  </si>
+  <si>
+    <t>15361158334</t>
+  </si>
+  <si>
+    <t>15361938827</t>
+  </si>
+  <si>
+    <t>15289736688</t>
+  </si>
+  <si>
+    <t>13590061073</t>
+  </si>
+  <si>
+    <t>18813812807</t>
+  </si>
+  <si>
+    <t>13763050770</t>
+  </si>
+  <si>
+    <t>13542054449</t>
+  </si>
+  <si>
+    <t>莫老板</t>
+  </si>
+  <si>
+    <t>张先生</t>
+  </si>
+  <si>
+    <t>李显钊</t>
+  </si>
+  <si>
+    <t>林木兰</t>
+  </si>
+  <si>
+    <t>吴老板</t>
+  </si>
+  <si>
+    <t>董老板</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤坎区寸金路29号岭南师范学院燕岭阁首层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13412708195</t>
+  </si>
+  <si>
+    <t>13726917629</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,12 +627,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -425,6 +645,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +668,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -442,24 +676,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,381 +1041,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082E77B-C7B7-4A60-9764-A553C3447E77}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="4">
+        <v>18922092313</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="7">
         <v>15767373606</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="7">
+        <v>15218218052</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D20" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2201132</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="7">
+        <v>2112650</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="7">
+        <v>13827882725</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="2">
-        <v>22201132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C26">
-        <v>2112650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C27">
-        <v>13827882725</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="7">
+        <v>13828471655</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>91</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="7">
+        <v>15089797798</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="7">
+        <v>18922082723</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/超市.xlsx
+++ b/超市.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\file\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feng\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C706DD1-BF1E-4BF4-B3F7-A009BCDE19BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E21369D-D45F-4EE6-914F-5975F2414886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5595" xr2:uid="{4A1F3E85-6A88-410B-A455-086BC093ECC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{4A1F3E85-6A88-410B-A455-086BC093ECC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>湛江市霞山区人民大道21号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,14 @@
   </si>
   <si>
     <t>13726917629</t>
+  </si>
+  <si>
+    <t>燕姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈良寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -731,7 +739,48 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1044,18 +1093,18 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="53.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>161</v>
       </c>
@@ -1069,7 +1118,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1132,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1160,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1195,22 +1244,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
+      <c r="C11" s="8">
+        <v>3177312</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1221,10 +1270,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1238,21 +1287,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
+      <c r="C14" s="8">
+        <v>3581686</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1266,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
@@ -1294,7 +1343,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1308,7 +1357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1371,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
@@ -1336,7 +1385,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
@@ -1350,7 +1399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -1364,7 +1413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
@@ -1378,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
@@ -1392,7 +1441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>65</v>
       </c>
@@ -1406,7 +1455,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>66</v>
       </c>
@@ -1420,7 +1469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
@@ -1434,7 +1483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>113</v>
       </c>
@@ -1448,7 +1497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>72</v>
       </c>
@@ -1462,7 +1511,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>74</v>
       </c>
@@ -1476,7 +1525,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
@@ -1490,7 +1539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>79</v>
       </c>
@@ -1504,7 +1553,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
@@ -1518,7 +1567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>114</v>
       </c>
@@ -1532,7 +1581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>97</v>
       </c>
@@ -1546,7 +1595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>83</v>
       </c>
@@ -1560,7 +1609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>84</v>
       </c>
@@ -1574,7 +1623,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>87</v>
       </c>
@@ -1588,7 +1637,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>89</v>
       </c>
@@ -1602,7 +1651,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>90</v>
       </c>
@@ -1616,7 +1665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>92</v>
       </c>
@@ -1630,7 +1679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>93</v>
       </c>
@@ -1644,7 +1693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>95</v>
       </c>
@@ -1658,7 +1707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>100</v>
       </c>
@@ -1672,7 +1721,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>102</v>
       </c>
@@ -1686,7 +1735,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>104</v>
       </c>
@@ -1702,6 +1751,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
